--- a/assets/img/caribe/inventory/insular/INSULAR_CARIBE.xlsx
+++ b/assets/img/caribe/inventory/insular/INSULAR_CARIBE.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\Añadidos_litorales\assets\img\caribe\inventory\insular\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Desarrollo_litorales\litorales\assets\img\caribe\inventory\insular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F942CB-CEC8-4BBC-9B23-971AC70E8479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB8BC29-9F3D-4B27-96E9-18A148974654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="215">
   <si>
     <t>HD</t>
   </si>
@@ -318,138 +329,6 @@
     <t>Playa Manzanillo, Mun. de Providencia. Por: Alejandro Gutierrez Bustamante</t>
   </si>
   <si>
-    <t>/assets/img/caribe/photos/insular/I_1.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_1.jpg</t>
-  </si>
-  <si>
-    <t>/assets/img/caribe/photos/insular/I_2.jpg</t>
-  </si>
-  <si>
-    <t>/assets/img/caribe/photos/insular/I_3.jpg</t>
-  </si>
-  <si>
-    <t>/assets/img/caribe/photos/insular/I_4.jpg</t>
-  </si>
-  <si>
-    <t>/assets/img/caribe/photos/insular/I_5.jpg</t>
-  </si>
-  <si>
-    <t>/assets/img/caribe/photos/insular/I_6.jpg</t>
-  </si>
-  <si>
-    <t>/assets/img/caribe/photos/insular/I_7.jpg</t>
-  </si>
-  <si>
-    <t>/assets/img/caribe/photos/insular/I_8.jpg</t>
-  </si>
-  <si>
-    <t>/assets/img/caribe/photos/insular/I_9.jpg</t>
-  </si>
-  <si>
-    <t>/assets/img/caribe/photos/insular/I_10.jpg</t>
-  </si>
-  <si>
-    <t>/assets/img/caribe/photos/insular/I_11.jpg</t>
-  </si>
-  <si>
-    <t>/assets/img/caribe/photos/insular/I_12.jpg</t>
-  </si>
-  <si>
-    <t>/assets/img/caribe/photos/insular/I_13.jpg</t>
-  </si>
-  <si>
-    <t>/assets/img/caribe/photos/insular/I_14.jpg</t>
-  </si>
-  <si>
-    <t>/assets/img/caribe/photos/insular/I_15.jpg</t>
-  </si>
-  <si>
-    <t>/assets/img/caribe/photos/insular/I_16.jpg</t>
-  </si>
-  <si>
-    <t>/assets/img/caribe/photos/insular/I_22.jpg</t>
-  </si>
-  <si>
-    <t>/assets/img/caribe/photos/insular/I_23.jpg</t>
-  </si>
-  <si>
-    <t>/assets/img/caribe/photos/insular/I_24.jpg</t>
-  </si>
-  <si>
-    <t>/assets/img/caribe/photos/insular/I_25.jpg</t>
-  </si>
-  <si>
-    <t>/assets/img/caribe/photos/insular/I_34.jpg</t>
-  </si>
-  <si>
-    <t>/assets/img/caribe/photos/insular/I_33.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_2.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_3.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_4.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_5.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_6.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_7.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_8.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_9.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_10.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_11.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_12.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_13.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_14.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_15.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_16.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_22.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_23.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_24.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_25.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_33.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_34.jpg</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -502,6 +381,306 @@
   </si>
   <si>
     <t>localPath</t>
+  </si>
+  <si>
+    <t>Por describir</t>
+  </si>
+  <si>
+    <t>Andrés Agudelo Bermúdez</t>
+  </si>
+  <si>
+    <t>IC_2</t>
+  </si>
+  <si>
+    <t>IC_3</t>
+  </si>
+  <si>
+    <t>IC_4</t>
+  </si>
+  <si>
+    <t>IC_5</t>
+  </si>
+  <si>
+    <t>IC_6</t>
+  </si>
+  <si>
+    <t>IC_7</t>
+  </si>
+  <si>
+    <t>IC_8</t>
+  </si>
+  <si>
+    <t>IC_9</t>
+  </si>
+  <si>
+    <t>IC_10</t>
+  </si>
+  <si>
+    <t>IC_11</t>
+  </si>
+  <si>
+    <t>IC_12</t>
+  </si>
+  <si>
+    <t>IC_13</t>
+  </si>
+  <si>
+    <t>IC_14</t>
+  </si>
+  <si>
+    <t>IC_15</t>
+  </si>
+  <si>
+    <t>IC_16</t>
+  </si>
+  <si>
+    <t>IC_17</t>
+  </si>
+  <si>
+    <t>IC_18</t>
+  </si>
+  <si>
+    <t>IC_19</t>
+  </si>
+  <si>
+    <t>IC_20</t>
+  </si>
+  <si>
+    <t>IC_21</t>
+  </si>
+  <si>
+    <t>IC_22</t>
+  </si>
+  <si>
+    <t>IC_23</t>
+  </si>
+  <si>
+    <t>IC_24</t>
+  </si>
+  <si>
+    <t>IC_25</t>
+  </si>
+  <si>
+    <t>IC_26</t>
+  </si>
+  <si>
+    <t>IC_27</t>
+  </si>
+  <si>
+    <t>IC_28</t>
+  </si>
+  <si>
+    <t>IC_29</t>
+  </si>
+  <si>
+    <t>IC_30</t>
+  </si>
+  <si>
+    <t>IC_31</t>
+  </si>
+  <si>
+    <t>IC_32</t>
+  </si>
+  <si>
+    <t>IC_33</t>
+  </si>
+  <si>
+    <t>IC_34</t>
+  </si>
+  <si>
+    <t>IC_35</t>
+  </si>
+  <si>
+    <t>IC_36</t>
+  </si>
+  <si>
+    <t>IC_37</t>
+  </si>
+  <si>
+    <t>IC_38</t>
+  </si>
+  <si>
+    <t>IC_39</t>
+  </si>
+  <si>
+    <t>IC_40</t>
+  </si>
+  <si>
+    <t>IC_41</t>
+  </si>
+  <si>
+    <t>IC_42</t>
+  </si>
+  <si>
+    <t>IC_43</t>
+  </si>
+  <si>
+    <t>IC_44</t>
+  </si>
+  <si>
+    <t>IC_45</t>
+  </si>
+  <si>
+    <t>IC_46</t>
+  </si>
+  <si>
+    <t>IC_47</t>
+  </si>
+  <si>
+    <t>IC_48</t>
+  </si>
+  <si>
+    <t>IC_49</t>
+  </si>
+  <si>
+    <t>IC_50</t>
+  </si>
+  <si>
+    <t>IC_51</t>
+  </si>
+  <si>
+    <t>IC_52</t>
+  </si>
+  <si>
+    <t>IC_53</t>
+  </si>
+  <si>
+    <t>IC_54</t>
+  </si>
+  <si>
+    <t>IC_55</t>
+  </si>
+  <si>
+    <t>IC_56</t>
+  </si>
+  <si>
+    <t>IC_57</t>
+  </si>
+  <si>
+    <t>IC_58</t>
+  </si>
+  <si>
+    <t>IC_59</t>
+  </si>
+  <si>
+    <t>IC_60</t>
+  </si>
+  <si>
+    <t>IC_61</t>
+  </si>
+  <si>
+    <t>IC_62</t>
+  </si>
+  <si>
+    <t>IC_63</t>
+  </si>
+  <si>
+    <t>IC_64</t>
+  </si>
+  <si>
+    <t>IC_65</t>
+  </si>
+  <si>
+    <t>IC_66</t>
+  </si>
+  <si>
+    <t>IC_70</t>
+  </si>
+  <si>
+    <t>IC_76</t>
+  </si>
+  <si>
+    <t>IC_77</t>
+  </si>
+  <si>
+    <t>IC_78</t>
+  </si>
+  <si>
+    <t>Bolívar</t>
+  </si>
+  <si>
+    <t>Cartagena</t>
+  </si>
+  <si>
+    <t>Isla Tierra Bomba</t>
+  </si>
+  <si>
+    <t>Isla Draga</t>
+  </si>
+  <si>
+    <t>Fuerte de San José</t>
+  </si>
+  <si>
+    <t>Isla calcárea</t>
+  </si>
+  <si>
+    <t>IC_89</t>
+  </si>
+  <si>
+    <t>IC_67</t>
+  </si>
+  <si>
+    <t>IC_68</t>
+  </si>
+  <si>
+    <t>IC_69</t>
+  </si>
+  <si>
+    <t>IC_71</t>
+  </si>
+  <si>
+    <t>IC_73</t>
+  </si>
+  <si>
+    <t>IC_72</t>
+  </si>
+  <si>
+    <t>IC_74</t>
+  </si>
+  <si>
+    <t>IC_75</t>
+  </si>
+  <si>
+    <t>IC_79</t>
+  </si>
+  <si>
+    <t>IC_80</t>
+  </si>
+  <si>
+    <t>IC_81</t>
+  </si>
+  <si>
+    <t>IC_82</t>
+  </si>
+  <si>
+    <t>IC_83</t>
+  </si>
+  <si>
+    <t>IC_84</t>
+  </si>
+  <si>
+    <t>IC_85</t>
+  </si>
+  <si>
+    <t>IC_86</t>
+  </si>
+  <si>
+    <t>IC_87</t>
+  </si>
+  <si>
+    <t>IC_88</t>
+  </si>
+  <si>
+    <t>David Alonso Vera Mancipe</t>
+  </si>
+  <si>
+    <t>Fresh Water</t>
+  </si>
+  <si>
+    <t>Relieve insular</t>
+  </si>
+  <si>
+    <t>Estimada</t>
   </si>
 </sst>
 </file>
@@ -539,7 +718,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -562,22 +741,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -859,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="I84" workbookViewId="0">
+      <selection activeCell="Q98" sqref="Q98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -881,7 +1107,7 @@
     <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.77734375" customWidth="1"/>
     <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="84.77734375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="74.77734375" bestFit="1" customWidth="1"/>
@@ -890,61 +1116,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -999,11 +1225,13 @@
       <c r="Q2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>97</v>
+      <c r="R2" s="3" t="str">
+        <f t="shared" ref="R2:R26" si="0">"https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/" &amp; O2 &amp; ".jpeg"</f>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_1.jpeg</v>
+      </c>
+      <c r="S2" s="1" t="str">
+        <f t="shared" ref="S2:S17" si="1">"/assets/img/caribe/photos/insular/" &amp; O2 &amp; ".jpeg"</f>
+        <v>/assets/img/caribe/photos/insular/I_1.jpeg</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -1058,11 +1286,13 @@
       <c r="Q3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>99</v>
+      <c r="R3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_2.jpeg</v>
+      </c>
+      <c r="S3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/caribe/photos/insular/I_2.jpeg</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -1117,11 +1347,13 @@
       <c r="Q4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>100</v>
+      <c r="R4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_3.jpeg</v>
+      </c>
+      <c r="S4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/caribe/photos/insular/I_3.jpeg</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1176,11 +1408,13 @@
       <c r="Q5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>101</v>
+      <c r="R5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_4.jpeg</v>
+      </c>
+      <c r="S5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/caribe/photos/insular/I_4.jpeg</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1235,11 +1469,13 @@
       <c r="Q6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>102</v>
+      <c r="R6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_5.jpeg</v>
+      </c>
+      <c r="S6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/caribe/photos/insular/I_5.jpeg</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1294,11 +1530,13 @@
       <c r="Q7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>103</v>
+      <c r="R7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_6.jpeg</v>
+      </c>
+      <c r="S7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/caribe/photos/insular/I_6.jpeg</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1353,11 +1591,13 @@
       <c r="Q8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>104</v>
+      <c r="R8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_7.jpeg</v>
+      </c>
+      <c r="S8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/caribe/photos/insular/I_7.jpeg</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -1412,11 +1652,13 @@
       <c r="Q9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>105</v>
+      <c r="R9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_8.jpeg</v>
+      </c>
+      <c r="S9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/caribe/photos/insular/I_8.jpeg</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1471,11 +1713,13 @@
       <c r="Q10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>106</v>
+      <c r="R10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_9.jpeg</v>
+      </c>
+      <c r="S10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/caribe/photos/insular/I_9.jpeg</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1530,11 +1774,13 @@
       <c r="Q11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R11" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>107</v>
+      <c r="R11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_10.jpeg</v>
+      </c>
+      <c r="S11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/caribe/photos/insular/I_10.jpeg</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -1589,11 +1835,13 @@
       <c r="Q12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R12" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>108</v>
+      <c r="R12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_11.jpeg</v>
+      </c>
+      <c r="S12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/caribe/photos/insular/I_11.jpeg</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1648,11 +1896,13 @@
       <c r="Q13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R13" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>109</v>
+      <c r="R13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_12.jpeg</v>
+      </c>
+      <c r="S13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/caribe/photos/insular/I_12.jpeg</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -1707,11 +1957,13 @@
       <c r="Q14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R14" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>110</v>
+      <c r="R14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_13.jpeg</v>
+      </c>
+      <c r="S14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/caribe/photos/insular/I_13.jpeg</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -1766,11 +2018,13 @@
       <c r="Q15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>111</v>
+      <c r="R15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_14.jpeg</v>
+      </c>
+      <c r="S15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/caribe/photos/insular/I_14.jpeg</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1825,11 +2079,13 @@
       <c r="Q16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R16" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>112</v>
+      <c r="R16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_15.jpeg</v>
+      </c>
+      <c r="S16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/caribe/photos/insular/I_15.jpeg</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -1884,11 +2140,13 @@
       <c r="Q17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R17" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>113</v>
+      <c r="R17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_16.jpeg</v>
+      </c>
+      <c r="S17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/img/caribe/photos/insular/I_16.jpeg</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -1937,17 +2195,19 @@
       <c r="O18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="2">
         <v>45211</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="R18" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>114</v>
+      <c r="R18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_22.jpeg</v>
+      </c>
+      <c r="S18" s="1" t="str">
+        <f>"/assets/img/caribe/photos/insular/" &amp; O18 &amp; ".jpeg"</f>
+        <v>/assets/img/caribe/photos/insular/I_22.jpeg</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -1996,17 +2256,19 @@
       <c r="O19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="2">
         <v>45211</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="R19" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>115</v>
+      <c r="R19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_23.jpeg</v>
+      </c>
+      <c r="S19" s="1" t="str">
+        <f t="shared" ref="S19:S23" si="2">"/assets/img/caribe/photos/insular/" &amp; O19 &amp; ".jpeg"</f>
+        <v>/assets/img/caribe/photos/insular/I_23.jpeg</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -2055,17 +2317,19 @@
       <c r="O20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="2">
         <v>45211</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="R20" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>116</v>
+      <c r="R20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_24.jpeg</v>
+      </c>
+      <c r="S20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/assets/img/caribe/photos/insular/I_24.jpeg</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -2120,11 +2384,13 @@
       <c r="Q21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="R21" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>117</v>
+      <c r="R21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_25.jpeg</v>
+      </c>
+      <c r="S21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/assets/img/caribe/photos/insular/I_25.jpeg</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -2179,11 +2445,13 @@
       <c r="Q22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="R22" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>119</v>
+      <c r="R22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_33.jpeg</v>
+      </c>
+      <c r="S22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/assets/img/caribe/photos/insular/I_33.jpeg</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -2238,38 +2506,4630 @@
       <c r="Q23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="R23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/I_34.jpeg</v>
+      </c>
+      <c r="S23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/assets/img/caribe/photos/insular/I_34.jpeg</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_2.jpeg</v>
+      </c>
+      <c r="S24" s="1" t="str">
+        <f>"/assets/img/caribe/photos/insular/" &amp; O24 &amp; ".jpeg"</f>
+        <v>/assets/img/caribe/photos/insular/IC_2.jpeg</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R25" s="3" t="str">
+        <f>"https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/" &amp; O25 &amp; ".jpeg"</f>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_3.jpeg</v>
+      </c>
+      <c r="S25" s="1" t="str">
+        <f>"/assets/img/caribe/photos/insular/" &amp; O25 &amp; ".jpeg"</f>
+        <v>/assets/img/caribe/photos/insular/IC_3.jpeg</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_4.jpeg</v>
+      </c>
+      <c r="S26" s="1" t="str">
+        <f>"/assets/img/caribe/photos/insular/" &amp; O26 &amp; ".jpeg"</f>
+        <v>/assets/img/caribe/photos/insular/IC_4.jpeg</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R27" s="3" t="str">
+        <f t="shared" ref="R27:R84" si="3">"https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/" &amp; O27 &amp; ".jpeg"</f>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_5.jpeg</v>
+      </c>
+      <c r="S27" s="1" t="str">
+        <f t="shared" ref="S27:S84" si="4">"/assets/img/caribe/photos/insular/" &amp; O27 &amp; ".jpeg"</f>
+        <v>/assets/img/caribe/photos/insular/IC_5.jpeg</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R28" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_6.jpeg</v>
+      </c>
+      <c r="S28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_6.jpeg</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R29" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_7.jpeg</v>
+      </c>
+      <c r="S29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_7.jpeg</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R30" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_8.jpeg</v>
+      </c>
+      <c r="S30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_8.jpeg</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R31" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_9.jpeg</v>
+      </c>
+      <c r="S31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_9.jpeg</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R32" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_10.jpeg</v>
+      </c>
+      <c r="S32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_10.jpeg</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R33" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_11.jpeg</v>
+      </c>
+      <c r="S33" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_11.jpeg</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R34" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_12.jpeg</v>
+      </c>
+      <c r="S34" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_12.jpeg</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R35" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_13.jpeg</v>
+      </c>
+      <c r="S35" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_13.jpeg</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R36" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_14.jpeg</v>
+      </c>
+      <c r="S36" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_14.jpeg</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R37" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_15.jpeg</v>
+      </c>
+      <c r="S37" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_15.jpeg</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R38" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_16.jpeg</v>
+      </c>
+      <c r="S38" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_16.jpeg</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R39" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_17.jpeg</v>
+      </c>
+      <c r="S39" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_17.jpeg</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R40" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_18.jpeg</v>
+      </c>
+      <c r="S40" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_18.jpeg</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R41" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_19.jpeg</v>
+      </c>
+      <c r="S41" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_19.jpeg</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R42" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_20.jpeg</v>
+      </c>
+      <c r="S42" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_20.jpeg</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R43" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_21.jpeg</v>
+      </c>
+      <c r="S43" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_21.jpeg</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R44" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_22.jpeg</v>
+      </c>
+      <c r="S44" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_22.jpeg</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R45" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_23.jpeg</v>
+      </c>
+      <c r="S45" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_23.jpeg</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R46" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_24.jpeg</v>
+      </c>
+      <c r="S46" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_24.jpeg</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O47" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="S23" s="1" t="s">
-        <v>118</v>
+      <c r="P47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R47" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_25.jpeg</v>
+      </c>
+      <c r="S47" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_25.jpeg</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R48" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_26.jpeg</v>
+      </c>
+      <c r="S48" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_26.jpeg</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R49" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_27.jpeg</v>
+      </c>
+      <c r="S49" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_27.jpeg</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R50" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_28.jpeg</v>
+      </c>
+      <c r="S50" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_28.jpeg</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R51" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_29.jpeg</v>
+      </c>
+      <c r="S51" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_29.jpeg</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R52" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_30.jpeg</v>
+      </c>
+      <c r="S52" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_30.jpeg</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R53" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_31.jpeg</v>
+      </c>
+      <c r="S53" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_31.jpeg</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R54" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_32.jpeg</v>
+      </c>
+      <c r="S54" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_32.jpeg</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R55" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_33.jpeg</v>
+      </c>
+      <c r="S55" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_33.jpeg</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R56" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_34.jpeg</v>
+      </c>
+      <c r="S56" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_34.jpeg</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R57" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_35.jpeg</v>
+      </c>
+      <c r="S57" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_35.jpeg</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R58" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_36.jpeg</v>
+      </c>
+      <c r="S58" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_36.jpeg</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R59" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_37.jpeg</v>
+      </c>
+      <c r="S59" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_37.jpeg</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R60" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_38.jpeg</v>
+      </c>
+      <c r="S60" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_38.jpeg</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R61" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_39.jpeg</v>
+      </c>
+      <c r="S61" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_39.jpeg</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R62" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_40.jpeg</v>
+      </c>
+      <c r="S62" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_40.jpeg</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R63" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_41.jpeg</v>
+      </c>
+      <c r="S63" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_41.jpeg</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R64" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_42.jpeg</v>
+      </c>
+      <c r="S64" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_42.jpeg</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R65" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_43.jpeg</v>
+      </c>
+      <c r="S65" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_43.jpeg</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R66" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_44.jpeg</v>
+      </c>
+      <c r="S66" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_44.jpeg</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R67" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_45.jpeg</v>
+      </c>
+      <c r="S67" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_45.jpeg</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R68" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_46.jpeg</v>
+      </c>
+      <c r="S68" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_46.jpeg</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R69" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_47.jpeg</v>
+      </c>
+      <c r="S69" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_47.jpeg</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R70" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_48.jpeg</v>
+      </c>
+      <c r="S70" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_48.jpeg</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R71" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_49.jpeg</v>
+      </c>
+      <c r="S71" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_49.jpeg</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R72" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_50.jpeg</v>
+      </c>
+      <c r="S72" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_50.jpeg</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R73" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_51.jpeg</v>
+      </c>
+      <c r="S73" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_51.jpeg</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R74" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_52.jpeg</v>
+      </c>
+      <c r="S74" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_52.jpeg</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R75" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_53.jpeg</v>
+      </c>
+      <c r="S75" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_53.jpeg</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R76" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_54.jpeg</v>
+      </c>
+      <c r="S76" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_54.jpeg</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R77" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_55.jpeg</v>
+      </c>
+      <c r="S77" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_55.jpeg</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R78" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_56.jpeg</v>
+      </c>
+      <c r="S78" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_56.jpeg</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R79" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_57.jpeg</v>
+      </c>
+      <c r="S79" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_57.jpeg</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R80" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_58.jpeg</v>
+      </c>
+      <c r="S80" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_58.jpeg</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R81" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_59.jpeg</v>
+      </c>
+      <c r="S81" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_59.jpeg</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R82" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_60.jpeg</v>
+      </c>
+      <c r="S82" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_60.jpeg</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R83" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_61.jpeg</v>
+      </c>
+      <c r="S83" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_61.jpeg</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R84" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_62.jpeg</v>
+      </c>
+      <c r="S84" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/img/caribe/photos/insular/IC_62.jpeg</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R85" s="3" t="str">
+        <f t="shared" ref="R85:R93" si="5">"https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/" &amp; O85 &amp; ".jpeg"</f>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_63.jpeg</v>
+      </c>
+      <c r="S85" s="1" t="str">
+        <f t="shared" ref="S85:S93" si="6">"/assets/img/caribe/photos/insular/" &amp; O85 &amp; ".jpeg"</f>
+        <v>/assets/img/caribe/photos/insular/IC_63.jpeg</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R86" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_64.jpeg</v>
+      </c>
+      <c r="S86" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>/assets/img/caribe/photos/insular/IC_64.jpeg</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R87" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_65.jpeg</v>
+      </c>
+      <c r="S87" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>/assets/img/caribe/photos/insular/IC_65.jpeg</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R88" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_66.jpeg</v>
+      </c>
+      <c r="S88" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>/assets/img/caribe/photos/insular/IC_66.jpeg</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R89" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_70.jpeg</v>
+      </c>
+      <c r="S89" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>/assets/img/caribe/photos/insular/IC_70.jpeg</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R90" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_76.jpeg</v>
+      </c>
+      <c r="S90" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>/assets/img/caribe/photos/insular/IC_76.jpeg</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R91" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_77.jpeg</v>
+      </c>
+      <c r="S91" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>/assets/img/caribe/photos/insular/IC_77.jpeg</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R92" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_78.jpeg</v>
+      </c>
+      <c r="S92" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>/assets/img/caribe/photos/insular/IC_78.jpeg</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R93" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_89.jpeg</v>
+      </c>
+      <c r="S93" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>/assets/img/caribe/photos/insular/IC_89.jpeg</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P94" s="7">
+        <v>45821</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R94" s="3" t="str">
+        <f t="shared" ref="R94:R96" si="7">"https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/" &amp; O94 &amp; ".jpeg"</f>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_67.jpeg</v>
+      </c>
+      <c r="S94" s="1" t="str">
+        <f t="shared" ref="S94:S96" si="8">"/assets/img/caribe/photos/insular/" &amp; O94 &amp; ".jpeg"</f>
+        <v>/assets/img/caribe/photos/insular/IC_67.jpeg</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="H95" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R95" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_68.jpeg</v>
+      </c>
+      <c r="S95" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>/assets/img/caribe/photos/insular/IC_68.jpeg</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O96" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="P96" s="7">
+        <v>45137</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R96" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_72.jpeg</v>
+      </c>
+      <c r="S96" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>/assets/img/caribe/photos/insular/IC_72.jpeg</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O97" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="P97" s="7">
+        <v>45137</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R97" s="3" t="str">
+        <f t="shared" ref="R97" si="9">"https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/" &amp; O97 &amp; ".jpeg"</f>
+        <v>https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/insular/IC_71.jpeg</v>
+      </c>
+      <c r="S97" s="1" t="str">
+        <f t="shared" ref="S97" si="10">"/assets/img/caribe/photos/insular/" &amp; O97 &amp; ".jpeg"</f>
+        <v>/assets/img/caribe/photos/insular/IC_71.jpeg</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O98" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O99" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O100" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O101" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O102" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O103" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O104" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O105" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O106" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O107" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O108" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O109" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O110" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O111" s="6" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" xr:uid="{53837818-1ACF-4A8E-ACF5-481A4295A7EC}"/>
-    <hyperlink ref="R3" r:id="rId2" xr:uid="{E15BD686-A433-4536-B809-B0FCD58EB701}"/>
-    <hyperlink ref="R4" r:id="rId3" xr:uid="{5DD82D0A-CFD5-417B-8841-D74A9845F693}"/>
-    <hyperlink ref="R5" r:id="rId4" xr:uid="{E2A423FF-A35D-46A6-A172-4EBAC2CEFC90}"/>
-    <hyperlink ref="R6" r:id="rId5" xr:uid="{223AB89B-9F20-4F4A-9645-A763DFC9CC1F}"/>
-    <hyperlink ref="R7" r:id="rId6" xr:uid="{4BA1F2D7-C5E4-45E7-979F-8818A62CAA72}"/>
-    <hyperlink ref="R8" r:id="rId7" xr:uid="{D6363966-71BD-4488-8BC3-DF052FE97123}"/>
-    <hyperlink ref="R9" r:id="rId8" xr:uid="{41757FB3-6073-4A0D-A235-83F210B165C1}"/>
-    <hyperlink ref="R10" r:id="rId9" xr:uid="{7EF31051-B55A-4BE5-829F-48830CDBB7AD}"/>
-    <hyperlink ref="R11" r:id="rId10" xr:uid="{3BA745DC-BDC3-413E-960D-DBACC58C3009}"/>
-    <hyperlink ref="R12" r:id="rId11" xr:uid="{C87A96F3-211D-4D4E-9DCE-9FF44BCC1191}"/>
-    <hyperlink ref="R13" r:id="rId12" xr:uid="{DD78CE74-51C8-4DE2-93F5-895AA1A76319}"/>
-    <hyperlink ref="R14" r:id="rId13" xr:uid="{497DC95E-085A-46A1-B8A8-E5BF536B8656}"/>
-    <hyperlink ref="R15" r:id="rId14" xr:uid="{DAD8ABBE-B404-4288-AF36-B4F665AB0586}"/>
-    <hyperlink ref="R16" r:id="rId15" xr:uid="{E761DD70-2481-4DEF-AFAE-87B586E8C2EA}"/>
-    <hyperlink ref="R17" r:id="rId16" xr:uid="{B09915D4-C775-499A-A83B-69EBDA0730AF}"/>
-    <hyperlink ref="R18" r:id="rId17" xr:uid="{DDE72913-C690-4188-A9E6-33DF5285CE99}"/>
-    <hyperlink ref="R19" r:id="rId18" xr:uid="{33377321-959B-4D20-9DED-8DB4DB87B01F}"/>
-    <hyperlink ref="R20" r:id="rId19" xr:uid="{8A4EDEDC-C18A-4733-AC79-8A3BA823A2BB}"/>
-    <hyperlink ref="R21" r:id="rId20" xr:uid="{1D2AC024-1CDA-4111-8E48-EC9170717B1C}"/>
-    <hyperlink ref="R22" r:id="rId21" xr:uid="{01ECE7B0-408D-4D57-9A00-663BBE6F6102}"/>
-    <hyperlink ref="R23" r:id="rId22" xr:uid="{70399A1D-7E30-4A83-A5AC-E88E9AF93024}"/>
+    <hyperlink ref="R2:R25" r:id="rId1" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{28430573-FDB4-4E39-892D-083C275EB55B}"/>
+    <hyperlink ref="R22:R26" r:id="rId2" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{A7CD458C-3C1C-410E-AAEC-512803E9517A}"/>
+    <hyperlink ref="R27:R28" r:id="rId3" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{059CB6E0-7C0F-45C9-8A0F-84FF5BCF739F}"/>
+    <hyperlink ref="R30:R31" r:id="rId4" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{50AA1669-D4A0-41D6-9293-48EA8E9E4F15}"/>
+    <hyperlink ref="R33:R34" r:id="rId5" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{DB72BE15-1E9F-4A2C-AE2B-19A2CA233390}"/>
+    <hyperlink ref="R36:R37" r:id="rId6" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{494F287A-11F2-4636-B41E-A26DC9974CDA}"/>
+    <hyperlink ref="R39:R40" r:id="rId7" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{EC6B1A1D-D2DF-4407-9328-B2147F3060F0}"/>
+    <hyperlink ref="R42:R43" r:id="rId8" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{1118ADEB-227C-4497-BB73-93D2026DAC6B}"/>
+    <hyperlink ref="R45:R46" r:id="rId9" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{22D38E24-3C40-4C87-A117-6D39EF0AF2EF}"/>
+    <hyperlink ref="R48:R49" r:id="rId10" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{FE7D3824-152B-47BF-A9B1-B459C2BE6F5F}"/>
+    <hyperlink ref="R51:R52" r:id="rId11" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{27493854-C15B-48B8-8F41-C44DA98F688A}"/>
+    <hyperlink ref="R54:R55" r:id="rId12" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{57DDA2FC-2CD3-4561-B6BD-40DB928AD3D1}"/>
+    <hyperlink ref="R57:R58" r:id="rId13" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{5A926287-D22F-42CB-BCCA-EE85A175C4D7}"/>
+    <hyperlink ref="R60:R61" r:id="rId14" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{8A0ED17A-6381-47B9-AE18-5C64F9355B21}"/>
+    <hyperlink ref="R63:R64" r:id="rId15" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{175585D5-9481-4787-9FF9-E914D24A6E2E}"/>
+    <hyperlink ref="R66:R67" r:id="rId16" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{B9C304BD-84C5-4E2C-BBC5-9350C58164E1}"/>
+    <hyperlink ref="R69:R70" r:id="rId17" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{0F51B454-9EDB-41E8-82BB-2E1B1884B43D}"/>
+    <hyperlink ref="R72:R73" r:id="rId18" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{DAA1CBF2-9B4B-4D7A-9124-E0A747181268}"/>
+    <hyperlink ref="R75:R76" r:id="rId19" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{A8077EF8-BABF-4043-A15A-FA8A8D184E10}"/>
+    <hyperlink ref="R78:R79" r:id="rId20" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{A1BCB434-4A02-4EBF-952B-5DB13AC3AFEB}"/>
+    <hyperlink ref="R81:R82" r:id="rId21" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{A1A20E44-AE00-4246-BF58-B5B94FFE5A5A}"/>
+    <hyperlink ref="R84" r:id="rId22" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{3EBBEB70-8E50-4368-BFA8-614ADAFCFE60}"/>
+    <hyperlink ref="R27:R29" r:id="rId23" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{C33B94DE-A82C-41BD-9017-0E92FB9E8BFF}"/>
+    <hyperlink ref="R30:R32" r:id="rId24" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{B05A0056-9E5D-41DC-BE88-D37D7E851C7D}"/>
+    <hyperlink ref="R33:R35" r:id="rId25" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{5D54D9F8-5249-480D-8F80-C09CF318504D}"/>
+    <hyperlink ref="R36:R38" r:id="rId26" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{46B1CF28-5C21-4F65-872A-2B6CF2DE6692}"/>
+    <hyperlink ref="R39:R41" r:id="rId27" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{F9B89744-C6DB-4C14-B6B5-1E62C5476518}"/>
+    <hyperlink ref="R42:R44" r:id="rId28" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{7ADBE6DF-E315-4689-9A7A-48E46BAE9BFF}"/>
+    <hyperlink ref="R45:R47" r:id="rId29" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{7F9E70C2-565E-470C-8974-D849AB61B7F9}"/>
+    <hyperlink ref="R48:R50" r:id="rId30" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{BFF602BD-5371-4953-8CFC-6DD312925CCD}"/>
+    <hyperlink ref="R51:R53" r:id="rId31" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{6CC3DD17-AEB1-4380-8FB6-299ABCD4E4C1}"/>
+    <hyperlink ref="R54:R56" r:id="rId32" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{CFD74C85-3741-4937-836A-7F40D323654E}"/>
+    <hyperlink ref="R57:R59" r:id="rId33" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{B3290F4B-2090-4137-B3EA-988A149BD3EA}"/>
+    <hyperlink ref="R60:R62" r:id="rId34" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{0FD9A668-ED4F-49F1-8D6E-67CE93553FAB}"/>
+    <hyperlink ref="R63:R65" r:id="rId35" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{0C9DF896-3BE8-4966-B317-58B8B5F8900E}"/>
+    <hyperlink ref="R66:R68" r:id="rId36" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{133C087D-5E5F-4058-9860-A0ABEADD213D}"/>
+    <hyperlink ref="R69:R71" r:id="rId37" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{F18CFD1D-8A1C-4295-94E5-693780655BD6}"/>
+    <hyperlink ref="R72:R74" r:id="rId38" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{257D728D-18A9-43E5-BFEA-4401364508E3}"/>
+    <hyperlink ref="R75:R77" r:id="rId39" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{9DA7A4F4-E169-473A-A05F-072C1C9A02D4}"/>
+    <hyperlink ref="R78:R80" r:id="rId40" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{BD911863-4BAF-460C-9343-BB15DE4CCD62}"/>
+    <hyperlink ref="R81:R83" r:id="rId41" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{F28AA785-0965-40C4-AE95-346231C4183B}"/>
+    <hyperlink ref="R86" r:id="rId42" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{A20B08B9-466E-41C8-86D7-97F28FCF7EF1}"/>
+    <hyperlink ref="R88" r:id="rId43" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{EA9DB9C7-176C-4D13-8D88-4894F473AE1B}"/>
+    <hyperlink ref="R90" r:id="rId44" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{C46C5A43-B1DF-471C-B4B2-EDDC073DD239}"/>
+    <hyperlink ref="R92" r:id="rId45" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{ACC489A1-6BAF-49D1-BB68-33AA6DB55EDD}"/>
+    <hyperlink ref="R85" r:id="rId46" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{199E4E92-547B-414A-BB77-583B13BF989D}"/>
+    <hyperlink ref="R87" r:id="rId47" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{6DCFCF89-21D3-49F3-A3E5-CC0E86588406}"/>
+    <hyperlink ref="R89" r:id="rId48" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{634722CF-6F62-4379-8DF3-1A445069D602}"/>
+    <hyperlink ref="R91" r:id="rId49" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{E1E67F4B-B92B-4C5E-9F12-0B8D44346332}"/>
+    <hyperlink ref="R93" r:id="rId50" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{43B8E118-EBAB-414C-AACF-FE26724D58A5}"/>
+    <hyperlink ref="R94" r:id="rId51" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{C3DEADCC-19DB-4A29-B8C2-4A0E0FAB78E8}"/>
+    <hyperlink ref="R95" r:id="rId52" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{3D1501F3-E92A-4A1A-A865-A340B7D43488}"/>
+    <hyperlink ref="R96" r:id="rId53" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{53AB94A5-425C-4C7B-B310-B7F8E71DAF7B}"/>
+    <hyperlink ref="R97" r:id="rId54" display="https://github.com/litocol/litorales/tree/main/assets/img/caribe/photos/continental/C_72.jpeg" xr:uid="{784FDEF6-54A6-4990-B4E8-C8EE50A8763B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
